--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_22_23.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_22_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1078114.841924076</v>
+        <v>1075416.356858318</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673428</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -665,13 +665,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>187.5255871663201</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>13.09783323005805</v>
+        <v>146.9311922907017</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -704,22 +704,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>11.36529914368128</v>
+        <v>11.36529914368137</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="V2" t="n">
-        <v>140.7094048023553</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="W2" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -738,7 +738,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>165.1725371760945</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -750,13 +750,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.1637893657753</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>100.8417573507397</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>48.77881175550655</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,25 +783,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>26.91122581714234</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>77.75788252862134</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="V3" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>40.04377454978662</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>23.4337583055308</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,28 +859,28 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.343082173845758</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="U4" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>138.3956966967182</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="X4" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -899,19 +899,19 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>261.314287127982</v>
       </c>
       <c r="E5" t="n">
-        <v>244.7733477498692</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>412.1240722933491</v>
+        <v>12.12407229334914</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>306.9212969131522</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>136.5862358447989</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -953,13 +953,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -972,28 +972,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>97.28968555453702</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>135.6427813325164</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>95.80991660847586</v>
+        <v>95.8099166084759</v>
       </c>
       <c r="I6" t="n">
-        <v>30.84059657531984</v>
+        <v>30.84059657531999</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1023,10 +1023,10 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>140.0927489854604</v>
       </c>
       <c r="T6" t="n">
-        <v>193.3095697982953</v>
+        <v>5.145235274362098</v>
       </c>
       <c r="U6" t="n">
         <v>225.8294915657976</v>
@@ -1041,7 +1041,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1063,16 +1063,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>43.96820316941939</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.565139569424</v>
       </c>
       <c r="H7" t="n">
-        <v>149.550160564931</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>112.5715838170145</v>
+        <v>112.5715838170146</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,25 +1099,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>113.1824495902089</v>
+        <v>113.182449590209</v>
       </c>
       <c r="S7" t="n">
-        <v>199.1680991680674</v>
+        <v>131.204367432175</v>
       </c>
       <c r="T7" t="n">
         <v>221.8533648751332</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.241256277089</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1142,16 +1142,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>221.1339460285335</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>25.58299561021804</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1288,16 +1288,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>124.0961330064688</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1339,16 +1339,16 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>182.9387099570818</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1370,13 +1370,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1385,10 +1385,10 @@
         <v>410.4296912136494</v>
       </c>
       <c r="H11" t="n">
-        <v>219.0429132216483</v>
+        <v>270.1915102239679</v>
       </c>
       <c r="I11" t="n">
-        <v>22.60777203238021</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>97.97552699114102</v>
       </c>
       <c r="T11" t="n">
         <v>201.7640893793779</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.9558092037176</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1433,7 +1433,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1467,7 +1467,7 @@
         <v>87.05432226458124</v>
       </c>
       <c r="I12" t="n">
-        <v>9.753166794035195</v>
+        <v>9.753166794035238</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1528,22 +1528,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>80.11438540867404</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.8050985482227</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.7927049400678</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.00824149146337</v>
+        <v>79.00824149146339</v>
       </c>
       <c r="S13" t="n">
-        <v>185.9226570076761</v>
+        <v>185.9226570076762</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>218.6059168754546</v>
       </c>
       <c r="U13" t="n">
         <v>286.1997994941144</v>
@@ -1588,13 +1588,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>196.2511428064776</v>
       </c>
     </row>
     <row r="14">
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>314.981365633718</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8432760127576</v>
+        <v>359.5517498754683</v>
       </c>
       <c r="H14" t="n">
         <v>283.5630920045443</v>
@@ -1771,13 +1771,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>8.102241693788123</v>
+        <v>81.37259901119342</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2002,22 +2002,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>167.2468210986265</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>19.91555826189108</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>99.97427419833915</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634823</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2242,16 +2242,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>83.06560892428134</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>91.89996056625419</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.584653352089</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>59.45282559760444</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2491,7 +2491,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>179.2499669408068</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>69.8286381302718</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2719,13 +2719,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833829</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2953,19 +2953,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833785</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>74.99129529219186</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3032,7 +3032,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620682</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3089,7 +3089,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3190,22 +3190,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>83.06560892427953</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>18.70843787977291</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3427,19 +3427,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>102.1557845699809</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>115.7228684476112</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3563,7 +3563,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.2409687174121</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3667,16 +3667,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833791</v>
       </c>
       <c r="H40" t="n">
-        <v>40.15381658332804</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3718,7 +3718,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3740,7 +3740,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3901,19 +3901,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>99.97427419833554</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>9.146142788180001</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3977,7 +3977,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710066</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -4135,7 +4135,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>121.8000472740345</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -4144,13 +4144,13 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4192,7 +4192,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>112.6683130937952</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>407.0717515820917</v>
+        <v>170.3628934706926</v>
       </c>
       <c r="C2" t="n">
-        <v>407.0717515820917</v>
+        <v>170.3628934706926</v>
       </c>
       <c r="D2" t="n">
-        <v>407.0717515820917</v>
+        <v>170.3628934706926</v>
       </c>
       <c r="E2" t="n">
-        <v>217.6519665656067</v>
+        <v>170.3628934706926</v>
       </c>
       <c r="F2" t="n">
-        <v>28.23218154912182</v>
+        <v>163.4173927214891</v>
       </c>
       <c r="G2" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H2" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I2" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678508</v>
+        <v>21.03371160678489</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058969</v>
+        <v>80.81213159058962</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079186</v>
+        <v>191.8743094079184</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644756</v>
+        <v>347.1218190644754</v>
       </c>
       <c r="N2" t="n">
-        <v>509.495204112383</v>
+        <v>509.4952041123826</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985586</v>
+        <v>649.484525998558</v>
       </c>
       <c r="P2" t="n">
-        <v>734.461172602027</v>
+        <v>734.4611726020262</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652803</v>
+        <v>750.1023486652792</v>
       </c>
       <c r="R2" t="n">
-        <v>738.6222485201477</v>
+        <v>738.6222485201465</v>
       </c>
       <c r="S2" t="n">
-        <v>738.6222485201477</v>
+        <v>738.6222485201465</v>
       </c>
       <c r="T2" t="n">
-        <v>738.6222485201477</v>
+        <v>549.2024635036619</v>
       </c>
       <c r="U2" t="n">
-        <v>738.6222485201477</v>
+        <v>359.7826784871772</v>
       </c>
       <c r="V2" t="n">
-        <v>596.4915365985767</v>
+        <v>170.3628934706926</v>
       </c>
       <c r="W2" t="n">
-        <v>407.0717515820917</v>
+        <v>170.3628934706926</v>
       </c>
       <c r="X2" t="n">
-        <v>407.0717515820917</v>
+        <v>170.3628934706926</v>
       </c>
       <c r="Y2" t="n">
-        <v>407.0717515820917</v>
+        <v>170.3628934706926</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>303.6731161369638</v>
+        <v>181.8429936158253</v>
       </c>
       <c r="C3" t="n">
-        <v>303.6731161369638</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="D3" t="n">
-        <v>303.6731161369638</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E3" t="n">
-        <v>303.6731161369638</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F3" t="n">
-        <v>303.6731161369638</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G3" t="n">
-        <v>166.133934959413</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H3" t="n">
-        <v>64.27357399906981</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024219</v>
+        <v>67.13418877024208</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772651</v>
+        <v>183.5548280772648</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140248</v>
+        <v>338.7690911140241</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546606</v>
+        <v>512.5000587546598</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476352</v>
+        <v>649.2101578476345</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017067</v>
+        <v>739.5989987017058</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652803</v>
+        <v>750.1023486652792</v>
       </c>
       <c r="R3" t="n">
-        <v>722.9192922843284</v>
+        <v>750.1023486652792</v>
       </c>
       <c r="S3" t="n">
-        <v>571.6362168389248</v>
+        <v>750.1023486652792</v>
       </c>
       <c r="T3" t="n">
-        <v>493.0929011534487</v>
+        <v>560.6825636487946</v>
       </c>
       <c r="U3" t="n">
-        <v>493.0929011534487</v>
+        <v>371.26277863231</v>
       </c>
       <c r="V3" t="n">
-        <v>303.6731161369638</v>
+        <v>371.26277863231</v>
       </c>
       <c r="W3" t="n">
-        <v>303.6731161369638</v>
+        <v>371.26277863231</v>
       </c>
       <c r="X3" t="n">
-        <v>303.6731161369638</v>
+        <v>181.8429936158253</v>
       </c>
       <c r="Y3" t="n">
-        <v>303.6731161369638</v>
+        <v>181.8429936158253</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>38.67250990818521</v>
+        <v>55.45030409430217</v>
       </c>
       <c r="C4" t="n">
-        <v>38.67250990818521</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="D4" t="n">
-        <v>38.67250990818521</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E4" t="n">
-        <v>38.67250990818521</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F4" t="n">
-        <v>38.67250990818521</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G4" t="n">
-        <v>38.67250990818521</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H4" t="n">
-        <v>38.67250990818521</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I4" t="n">
-        <v>38.67250990818521</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="L4" t="n">
-        <v>187.8896250884407</v>
+        <v>187.8896250884406</v>
       </c>
       <c r="M4" t="n">
-        <v>373.5399563830975</v>
+        <v>285.9838492295947</v>
       </c>
       <c r="N4" t="n">
-        <v>559.1902876777544</v>
+        <v>471.6341805242513</v>
       </c>
       <c r="O4" t="n">
-        <v>721.9284911143046</v>
+        <v>634.3723839608015</v>
       </c>
       <c r="P4" t="n">
-        <v>750.1023486652803</v>
+        <v>750.1023486652792</v>
       </c>
       <c r="Q4" t="n">
-        <v>746.725497984628</v>
+        <v>750.1023486652792</v>
       </c>
       <c r="R4" t="n">
-        <v>746.725497984628</v>
+        <v>615.9383389575112</v>
       </c>
       <c r="S4" t="n">
-        <v>746.725497984628</v>
+        <v>615.9383389575112</v>
       </c>
       <c r="T4" t="n">
-        <v>746.725497984628</v>
+        <v>426.5185539410265</v>
       </c>
       <c r="U4" t="n">
-        <v>557.3057129681431</v>
+        <v>426.5185539410265</v>
       </c>
       <c r="V4" t="n">
-        <v>367.8859279516582</v>
+        <v>426.5185539410265</v>
       </c>
       <c r="W4" t="n">
-        <v>228.0922949246701</v>
+        <v>237.0987689245419</v>
       </c>
       <c r="X4" t="n">
-        <v>38.67250990818521</v>
+        <v>237.0987689245419</v>
       </c>
       <c r="Y4" t="n">
-        <v>38.67250990818521</v>
+        <v>237.0987689245419</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1112.031381747702</v>
+        <v>1016.468357872476</v>
       </c>
       <c r="C5" t="n">
-        <v>1112.031381747702</v>
+        <v>1016.468357872476</v>
       </c>
       <c r="D5" t="n">
-        <v>1112.031381747702</v>
+        <v>752.5145324906762</v>
       </c>
       <c r="E5" t="n">
-        <v>864.785575939753</v>
+        <v>366.7262798924319</v>
       </c>
       <c r="F5" t="n">
-        <v>453.7996711501455</v>
+        <v>359.7807791432284</v>
       </c>
       <c r="G5" t="n">
-        <v>37.51272943969187</v>
+        <v>347.5342414731788</v>
       </c>
       <c r="H5" t="n">
-        <v>37.51272943969187</v>
+        <v>37.5127294396917</v>
       </c>
       <c r="I5" t="n">
-        <v>37.51272943969187</v>
+        <v>37.5127294396917</v>
       </c>
       <c r="J5" t="n">
-        <v>125.3646689521495</v>
+        <v>125.3646689521489</v>
       </c>
       <c r="K5" t="n">
-        <v>307.7704712613121</v>
+        <v>307.7704712613104</v>
       </c>
       <c r="L5" t="n">
-        <v>570.9627603081366</v>
+        <v>570.962760308134</v>
       </c>
       <c r="M5" t="n">
-        <v>895.4843310418044</v>
+        <v>895.4843310418003</v>
       </c>
       <c r="N5" t="n">
-        <v>1229.870808445632</v>
+        <v>1229.870808445627</v>
       </c>
       <c r="O5" t="n">
-        <v>1532.287215726473</v>
+        <v>1532.287215726466</v>
       </c>
       <c r="P5" t="n">
-        <v>1755.891621830855</v>
+        <v>1755.891621830847</v>
       </c>
       <c r="Q5" t="n">
-        <v>1875.636471984593</v>
+        <v>1875.636471984585</v>
       </c>
       <c r="R5" t="n">
-        <v>1875.636471984593</v>
+        <v>1875.636471984585</v>
       </c>
       <c r="S5" t="n">
-        <v>1875.636471984593</v>
+        <v>1737.670577191858</v>
       </c>
       <c r="T5" t="n">
-        <v>1875.636471984593</v>
+        <v>1737.670577191858</v>
       </c>
       <c r="U5" t="n">
-        <v>1875.636471984593</v>
+        <v>1737.670577191858</v>
       </c>
       <c r="V5" t="n">
-        <v>1875.636471984593</v>
+        <v>1406.607689848288</v>
       </c>
       <c r="W5" t="n">
-        <v>1875.636471984593</v>
+        <v>1406.607689848288</v>
       </c>
       <c r="X5" t="n">
-        <v>1502.170713723513</v>
+        <v>1406.607689848288</v>
       </c>
       <c r="Y5" t="n">
-        <v>1112.031381747702</v>
+        <v>1016.468357872476</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>547.262418797503</v>
+        <v>635.3645376519485</v>
       </c>
       <c r="C6" t="n">
-        <v>547.262418797503</v>
+        <v>460.9115083708215</v>
       </c>
       <c r="D6" t="n">
-        <v>547.262418797503</v>
+        <v>311.9770987095702</v>
       </c>
       <c r="E6" t="n">
-        <v>448.9900091464555</v>
+        <v>311.9770987095702</v>
       </c>
       <c r="F6" t="n">
-        <v>302.4554511733405</v>
+        <v>165.4425407364552</v>
       </c>
       <c r="G6" t="n">
         <v>165.4425407364552</v>
       </c>
       <c r="H6" t="n">
-        <v>68.66484719254019</v>
+        <v>68.66484719254017</v>
       </c>
       <c r="I6" t="n">
-        <v>37.51272943969187</v>
+        <v>37.5127294396917</v>
       </c>
       <c r="J6" t="n">
-        <v>179.9939456854857</v>
+        <v>71.01889581028158</v>
       </c>
       <c r="K6" t="n">
-        <v>315.416145521409</v>
+        <v>287.5870345357267</v>
       </c>
       <c r="L6" t="n">
-        <v>543.8305464934244</v>
+        <v>751.8070613519114</v>
       </c>
       <c r="M6" t="n">
-        <v>829.7362469887564</v>
+        <v>1037.712761847242</v>
       </c>
       <c r="N6" t="n">
-        <v>1137.617665552984</v>
+        <v>1345.594180411468</v>
       </c>
       <c r="O6" t="n">
-        <v>1397.049218823129</v>
+        <v>1605.025733681613</v>
       </c>
       <c r="P6" t="n">
-        <v>1585.932845968898</v>
+        <v>1793.909360827381</v>
       </c>
       <c r="Q6" t="n">
-        <v>1870.253867027664</v>
+        <v>1870.253867027656</v>
       </c>
       <c r="R6" t="n">
-        <v>1875.636471984593</v>
+        <v>1875.636471984585</v>
       </c>
       <c r="S6" t="n">
-        <v>1875.636471984593</v>
+        <v>1734.128644726544</v>
       </c>
       <c r="T6" t="n">
-        <v>1680.374280269144</v>
+        <v>1728.931437378703</v>
       </c>
       <c r="U6" t="n">
-        <v>1452.263682727934</v>
+        <v>1500.820839837494</v>
       </c>
       <c r="V6" t="n">
-        <v>1217.111574496191</v>
+        <v>1265.668731605751</v>
       </c>
       <c r="W6" t="n">
-        <v>962.8742177679896</v>
+        <v>1011.431374877549</v>
       </c>
       <c r="X6" t="n">
-        <v>755.0227175624568</v>
+        <v>803.5798746720166</v>
       </c>
       <c r="Y6" t="n">
-        <v>547.262418797503</v>
+        <v>803.5798746720166</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>346.6944946430907</v>
+        <v>319.4690156886196</v>
       </c>
       <c r="C7" t="n">
-        <v>346.6944946430907</v>
+        <v>319.4690156886196</v>
       </c>
       <c r="D7" t="n">
-        <v>346.6944946430907</v>
+        <v>319.4690156886196</v>
       </c>
       <c r="E7" t="n">
-        <v>346.6944946430907</v>
+        <v>319.4690156886196</v>
       </c>
       <c r="F7" t="n">
-        <v>302.2821682093337</v>
+        <v>319.4690156886196</v>
       </c>
       <c r="G7" t="n">
-        <v>302.2821682093337</v>
+        <v>151.2213999619287</v>
       </c>
       <c r="H7" t="n">
         <v>151.2213999619287</v>
       </c>
       <c r="I7" t="n">
-        <v>37.51272943969187</v>
+        <v>37.5127294396917</v>
       </c>
       <c r="J7" t="n">
-        <v>44.88594547809218</v>
+        <v>44.88594547809176</v>
       </c>
       <c r="K7" t="n">
-        <v>186.8392411052403</v>
+        <v>186.8392411052395</v>
       </c>
       <c r="L7" t="n">
-        <v>424.017021301816</v>
+        <v>424.0170213018146</v>
       </c>
       <c r="M7" t="n">
-        <v>684.4768588349675</v>
+        <v>684.4768588349655</v>
       </c>
       <c r="N7" t="n">
-        <v>944.1781600097952</v>
+        <v>944.1781600097927</v>
       </c>
       <c r="O7" t="n">
-        <v>1168.038050003899</v>
+        <v>1168.038050003896</v>
       </c>
       <c r="P7" t="n">
-        <v>1336.068176656004</v>
+        <v>1336.068176656</v>
       </c>
       <c r="Q7" t="n">
-        <v>1368.968446508015</v>
+        <v>1368.968446508011</v>
       </c>
       <c r="R7" t="n">
-        <v>1254.642739851238</v>
+        <v>1254.642739851234</v>
       </c>
       <c r="S7" t="n">
-        <v>1053.462841701675</v>
+        <v>1122.11307577833</v>
       </c>
       <c r="T7" t="n">
-        <v>829.3685337469949</v>
+        <v>898.0187678236499</v>
       </c>
       <c r="U7" t="n">
-        <v>829.3685337469949</v>
+        <v>608.8861857255802</v>
       </c>
       <c r="V7" t="n">
-        <v>574.684045541108</v>
+        <v>608.8861857255802</v>
       </c>
       <c r="W7" t="n">
-        <v>574.684045541108</v>
+        <v>319.4690156886196</v>
       </c>
       <c r="X7" t="n">
-        <v>346.6944946430907</v>
+        <v>319.4690156886196</v>
       </c>
       <c r="Y7" t="n">
-        <v>346.6944946430907</v>
+        <v>319.4690156886196</v>
       </c>
     </row>
     <row r="8">
@@ -4778,34 +4778,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1284.324637962024</v>
+        <v>1588.383781964454</v>
       </c>
       <c r="C8" t="n">
-        <v>1284.324637962024</v>
+        <v>1588.383781964454</v>
       </c>
       <c r="D8" t="n">
-        <v>926.0589393552737</v>
+        <v>1230.118083357703</v>
       </c>
       <c r="E8" t="n">
-        <v>540.2706867570294</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F8" t="n">
-        <v>129.2847819674218</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G8" t="n">
-        <v>117.6204357321147</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H8" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
         <v>795.7553530872915</v>
@@ -4820,34 +4820,34 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="T8" t="n">
-        <v>2228.894479532451</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U8" t="n">
-        <v>2005.526857281407</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="V8" t="n">
-        <v>1674.463969937836</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="W8" t="n">
-        <v>1674.463969937836</v>
+        <v>2000.825031735866</v>
       </c>
       <c r="X8" t="n">
-        <v>1674.463969937836</v>
+        <v>1974.983622028575</v>
       </c>
       <c r="Y8" t="n">
-        <v>1284.324637962024</v>
+        <v>1974.983622028575</v>
       </c>
     </row>
     <row r="9">
@@ -4872,40 +4872,40 @@
         <v>302.14468917569</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4432786182524</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K9" t="n">
-        <v>614.543024838023</v>
+        <v>298.3188265310615</v>
       </c>
       <c r="L9" t="n">
-        <v>909.2465818694948</v>
+        <v>593.0223835625333</v>
       </c>
       <c r="M9" t="n">
-        <v>1272.508600828715</v>
+        <v>956.2844025217535</v>
       </c>
       <c r="N9" t="n">
-        <v>1659.79372942566</v>
+        <v>1343.569531118699</v>
       </c>
       <c r="O9" t="n">
-        <v>1991.864164601822</v>
+        <v>1675.639966294861</v>
       </c>
       <c r="P9" t="n">
-        <v>2239.046898434119</v>
+        <v>2238.100841080695</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.339328400155</v>
+        <v>2561.393271046732</v>
       </c>
       <c r="R9" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S9" t="n">
         <v>2426.617474780096</v>
@@ -4936,40 +4936,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>518.2127024906389</v>
+        <v>201.3634259803388</v>
       </c>
       <c r="C10" t="n">
-        <v>349.2765195627319</v>
+        <v>201.3634259803388</v>
       </c>
       <c r="D10" t="n">
-        <v>199.1598801503962</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="E10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="F10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="G10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312202</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096587</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
@@ -4981,31 +4981,31 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1451.659544360274</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074497</v>
+        <v>1228.681063555009</v>
       </c>
       <c r="U10" t="n">
-        <v>1636.446120074497</v>
+        <v>939.5627260588469</v>
       </c>
       <c r="V10" t="n">
-        <v>1381.76163186861</v>
+        <v>939.5627260588469</v>
       </c>
       <c r="W10" t="n">
-        <v>1092.34446183165</v>
+        <v>650.1455560218863</v>
       </c>
       <c r="X10" t="n">
-        <v>864.3549109336325</v>
+        <v>422.1560051238689</v>
       </c>
       <c r="Y10" t="n">
-        <v>643.5623317901023</v>
+        <v>201.3634259803388</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2261.180486096754</v>
+        <v>1535.25883268935</v>
       </c>
       <c r="C11" t="n">
-        <v>1892.217969156343</v>
+        <v>1535.25883268935</v>
       </c>
       <c r="D11" t="n">
-        <v>1533.952270549592</v>
+        <v>1176.9931340826</v>
       </c>
       <c r="E11" t="n">
-        <v>1148.164017951348</v>
+        <v>1176.9931340826</v>
       </c>
       <c r="F11" t="n">
-        <v>737.1781131617404</v>
+        <v>766.0072292929926</v>
       </c>
       <c r="G11" t="n">
-        <v>322.6026674913873</v>
+        <v>351.4317836226394</v>
       </c>
       <c r="H11" t="n">
-        <v>101.3471995907325</v>
+        <v>78.51106622469182</v>
       </c>
       <c r="I11" t="n">
-        <v>78.51106622469185</v>
+        <v>78.51106622469182</v>
       </c>
       <c r="J11" t="n">
-        <v>308.7333971386832</v>
+        <v>308.7333971386831</v>
       </c>
       <c r="K11" t="n">
-        <v>704.5155104420322</v>
+        <v>704.5155104420319</v>
       </c>
       <c r="L11" t="n">
-        <v>1232.419981301225</v>
+        <v>1232.419981301224</v>
       </c>
       <c r="M11" t="n">
-        <v>1851.48485887811</v>
+        <v>1851.484858878109</v>
       </c>
       <c r="N11" t="n">
-        <v>2485.180661765426</v>
+        <v>2485.180661765424</v>
       </c>
       <c r="O11" t="n">
-        <v>3070.226377687102</v>
+        <v>3070.2263776871</v>
       </c>
       <c r="P11" t="n">
-        <v>3535.048359856284</v>
+        <v>3535.048359856282</v>
       </c>
       <c r="Q11" t="n">
-        <v>3835.937563882242</v>
+        <v>3835.93756388224</v>
       </c>
       <c r="R11" t="n">
-        <v>3925.553311234592</v>
+        <v>3925.553311234591</v>
       </c>
       <c r="S11" t="n">
-        <v>3925.553311234592</v>
+        <v>3826.58813245566</v>
       </c>
       <c r="T11" t="n">
-        <v>3721.751200750372</v>
+        <v>3622.78602197144</v>
       </c>
       <c r="U11" t="n">
-        <v>3721.751200750372</v>
+        <v>3369.295305604049</v>
       </c>
       <c r="V11" t="n">
-        <v>3390.688313406802</v>
+        <v>3038.232418260478</v>
       </c>
       <c r="W11" t="n">
-        <v>3037.919658136688</v>
+        <v>2685.463762990364</v>
       </c>
       <c r="X11" t="n">
-        <v>3037.919658136688</v>
+        <v>2311.998004729284</v>
       </c>
       <c r="Y11" t="n">
-        <v>2647.780326160876</v>
+        <v>1921.858672753472</v>
       </c>
     </row>
     <row r="12">
@@ -5106,40 +5106,40 @@
         <v>458.9281460057439</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3935880326288</v>
+        <v>312.3935880326289</v>
       </c>
       <c r="G12" t="n">
         <v>176.2964087081428</v>
       </c>
       <c r="H12" t="n">
-        <v>88.36274985503043</v>
+        <v>88.36274985503044</v>
       </c>
       <c r="I12" t="n">
-        <v>78.51106622469185</v>
+        <v>78.51106622469182</v>
       </c>
       <c r="J12" t="n">
-        <v>78.51106622469185</v>
+        <v>196.8120623792128</v>
       </c>
       <c r="K12" t="n">
-        <v>78.51106622469185</v>
+        <v>477.1621322376502</v>
       </c>
       <c r="L12" t="n">
-        <v>480.1171086843885</v>
+        <v>900.4499396649599</v>
       </c>
       <c r="M12" t="n">
-        <v>993.4308829282782</v>
+        <v>977.3905023848067</v>
       </c>
       <c r="N12" t="n">
-        <v>1534.739190279345</v>
+        <v>1518.698809735874</v>
       </c>
       <c r="O12" t="n">
-        <v>2007.710743145095</v>
+        <v>1991.670362601623</v>
       </c>
       <c r="P12" t="n">
-        <v>2367.979045985249</v>
+        <v>2351.938665441777</v>
       </c>
       <c r="Q12" t="n">
-        <v>2558.889669173201</v>
+        <v>2542.849288629729</v>
       </c>
       <c r="R12" t="n">
         <v>2558.889669173201</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>934.8888648763005</v>
+        <v>226.4241598070849</v>
       </c>
       <c r="C13" t="n">
-        <v>765.9526819483937</v>
+        <v>226.4241598070849</v>
       </c>
       <c r="D13" t="n">
-        <v>685.0290603234706</v>
+        <v>226.4241598070849</v>
       </c>
       <c r="E13" t="n">
-        <v>537.1159667410775</v>
+        <v>78.51106622469182</v>
       </c>
       <c r="F13" t="n">
-        <v>390.2260192431671</v>
+        <v>78.51106622469182</v>
       </c>
       <c r="G13" t="n">
-        <v>222.7461217197098</v>
+        <v>78.51106622469182</v>
       </c>
       <c r="H13" t="n">
-        <v>78.51106622469185</v>
+        <v>78.51106622469182</v>
       </c>
       <c r="I13" t="n">
-        <v>78.51106622469185</v>
+        <v>78.51106622469182</v>
       </c>
       <c r="J13" t="n">
-        <v>139.0818334600403</v>
+        <v>139.08183346004</v>
       </c>
       <c r="K13" t="n">
-        <v>368.4550473457707</v>
+        <v>368.4550473457704</v>
       </c>
       <c r="L13" t="n">
-        <v>717.5002252888921</v>
+        <v>717.5002252888917</v>
       </c>
       <c r="M13" t="n">
-        <v>1095.908548779222</v>
+        <v>1095.908548779221</v>
       </c>
       <c r="N13" t="n">
-        <v>1470.753784542994</v>
+        <v>1470.753784542993</v>
       </c>
       <c r="O13" t="n">
         <v>1800.967734715849</v>
       </c>
       <c r="P13" t="n">
-        <v>2060.002133082522</v>
+        <v>2060.002133082521</v>
       </c>
       <c r="Q13" t="n">
-        <v>2155.909043551106</v>
+        <v>2155.909043551104</v>
       </c>
       <c r="R13" t="n">
-        <v>2076.102739014274</v>
+        <v>2076.102739014273</v>
       </c>
       <c r="S13" t="n">
-        <v>1888.302075370156</v>
+        <v>1888.302075370155</v>
       </c>
       <c r="T13" t="n">
-        <v>1888.302075370156</v>
+        <v>1667.488017920201</v>
       </c>
       <c r="U13" t="n">
-        <v>1599.211368810445</v>
+        <v>1378.39731136049</v>
       </c>
       <c r="V13" t="n">
-        <v>1344.526880604558</v>
+        <v>1123.712823154603</v>
       </c>
       <c r="W13" t="n">
-        <v>1344.526880604558</v>
+        <v>834.2956531176426</v>
       </c>
       <c r="X13" t="n">
-        <v>1116.53732970654</v>
+        <v>606.3061022196252</v>
       </c>
       <c r="Y13" t="n">
-        <v>1116.53732970654</v>
+        <v>408.0726246373247</v>
       </c>
     </row>
     <row r="14">
@@ -5255,19 +5255,19 @@
         <v>2266.424947555046</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.261951965432</v>
+        <v>1897.462430614635</v>
       </c>
       <c r="D14" t="n">
-        <v>1589.996253358682</v>
+        <v>1539.196732007884</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.208000760437</v>
+        <v>1153.40847940964</v>
       </c>
       <c r="F14" t="n">
-        <v>793.22209597083</v>
+        <v>742.4225746200325</v>
       </c>
       <c r="G14" t="n">
-        <v>379.2389888872365</v>
+        <v>379.2389888872364</v>
       </c>
       <c r="H14" t="n">
         <v>92.81162322608056</v>
@@ -5276,28 +5276,28 @@
         <v>92.81162322608057</v>
       </c>
       <c r="J14" t="n">
-        <v>372.3074987251939</v>
+        <v>372.3074987251935</v>
       </c>
       <c r="K14" t="n">
-        <v>841.9378825128761</v>
+        <v>841.9378825128756</v>
       </c>
       <c r="L14" t="n">
-        <v>1461.457663018651</v>
+        <v>1461.45766301865</v>
       </c>
       <c r="M14" t="n">
-        <v>2182.462224957689</v>
+        <v>2182.462224957688</v>
       </c>
       <c r="N14" t="n">
-        <v>2919.747202874795</v>
+        <v>2919.747202874794</v>
       </c>
       <c r="O14" t="n">
         <v>3602.609239333933</v>
       </c>
       <c r="P14" t="n">
-        <v>4150.915188021281</v>
+        <v>4150.915188021282</v>
       </c>
       <c r="Q14" t="n">
-        <v>4514.497374127289</v>
+        <v>4514.49737412729</v>
       </c>
       <c r="R14" t="n">
         <v>4640.581161304028</v>
@@ -5352,31 +5352,31 @@
         <v>92.81162322608056</v>
       </c>
       <c r="I15" t="n">
-        <v>92.81162322608056</v>
+        <v>93.85065580060315</v>
       </c>
       <c r="J15" t="n">
-        <v>240.4596049779265</v>
+        <v>241.4986375524491</v>
       </c>
       <c r="K15" t="n">
-        <v>570.9683475412853</v>
+        <v>572.0073801158079</v>
       </c>
       <c r="L15" t="n">
-        <v>1061.700680385037</v>
+        <v>1062.739712959559</v>
       </c>
       <c r="M15" t="n">
-        <v>1653.719034637164</v>
+        <v>1062.739712959559</v>
       </c>
       <c r="N15" t="n">
-        <v>2275.814998036501</v>
+        <v>1320.428158124812</v>
       </c>
       <c r="O15" t="n">
-        <v>2552.77562977024</v>
+        <v>1867.304633125007</v>
       </c>
       <c r="P15" t="n">
-        <v>2552.77562977024</v>
+        <v>2286.888151551083</v>
       </c>
       <c r="Q15" t="n">
-        <v>2552.77562977024</v>
+        <v>2517.44942553633</v>
       </c>
       <c r="R15" t="n">
         <v>2552.77562977024</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>714.8515691656038</v>
+        <v>494.0589900220737</v>
       </c>
       <c r="C16" t="n">
-        <v>545.9153862376969</v>
+        <v>325.1228070941668</v>
       </c>
       <c r="D16" t="n">
-        <v>395.7987468253611</v>
+        <v>175.0061676818311</v>
       </c>
       <c r="E16" t="n">
-        <v>247.8856532429681</v>
+        <v>175.0061676818311</v>
       </c>
       <c r="F16" t="n">
-        <v>100.9957057450579</v>
+        <v>175.0061676818311</v>
       </c>
       <c r="G16" t="n">
         <v>92.81162322608056</v>
@@ -5434,13 +5434,13 @@
         <v>92.81162322608056</v>
       </c>
       <c r="J16" t="n">
-        <v>171.7937461156344</v>
+        <v>171.7937461156345</v>
       </c>
       <c r="K16" t="n">
-        <v>431.4224730861981</v>
+        <v>431.4224730861982</v>
       </c>
       <c r="L16" t="n">
-        <v>819.1842911693324</v>
+        <v>819.1842911693325</v>
       </c>
       <c r="M16" t="n">
         <v>1238.413883213792</v>
@@ -5479,7 +5479,7 @@
         <v>896.5000339958435</v>
       </c>
       <c r="Y16" t="n">
-        <v>896.5000339958435</v>
+        <v>675.7074548523134</v>
       </c>
     </row>
     <row r="17">
@@ -5510,19 +5510,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355938</v>
@@ -5531,10 +5531,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5592,28 +5592,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L18" t="n">
-        <v>980.1499206998682</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M18" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>580.899304487669</v>
+        <v>513.8536007400708</v>
       </c>
       <c r="C19" t="n">
-        <v>411.9631215597622</v>
+        <v>344.9174178121654</v>
       </c>
       <c r="D19" t="n">
-        <v>261.8464821474265</v>
+        <v>194.8007783998296</v>
       </c>
       <c r="E19" t="n">
-        <v>113.9333885650335</v>
+        <v>194.8007783998296</v>
       </c>
       <c r="F19" t="n">
-        <v>93.81666304797187</v>
+        <v>194.8007783998296</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>194.8007783998296</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5674,7 +5674,7 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
         <v>826.1405381797745</v>
@@ -5686,37 +5686,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614389</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.5477693179088</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
     <row r="20">
@@ -5741,19 +5741,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111708</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075798</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332386</v>
@@ -5768,34 +5768,34 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L21" t="n">
-        <v>923.0670414349513</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M21" t="n">
-        <v>1520.445529061503</v>
+        <v>691.1951506745238</v>
       </c>
       <c r="N21" t="n">
-        <v>2148.04349261611</v>
+        <v>1318.79311422913</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>1870.702844468417</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2294.325993963485</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2527.587654338368</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400708</v>
       </c>
       <c r="C22" t="n">
-        <v>538.7363435406111</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="D22" t="n">
-        <v>388.6197041282754</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E22" t="n">
-        <v>240.7066105458823</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F22" t="n">
-        <v>93.81666304797189</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2171.280006238949</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1882.204779583147</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1627.52029137726</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1338.103121340299</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1110.113570442282</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y22" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
     <row r="23">
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>740.5562989961526</v>
       </c>
       <c r="M24" t="n">
-        <v>691.1951506745238</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N24" t="n">
-        <v>1318.793114229131</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O24" t="n">
-        <v>1870.702844468418</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P24" t="n">
-        <v>2294.325993963486</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
-        <v>2527.587654338369</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>702.4944101284095</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C25" t="n">
-        <v>533.5582272005026</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D25" t="n">
-        <v>383.4415877881669</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6169,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614391</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y25" t="n">
-        <v>762.547769317909</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="26">
@@ -6230,10 +6230,10 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355938</v>
@@ -6245,7 +6245,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6303,16 +6303,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N27" t="n">
         <v>1307.627092998424</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>874.8686257536382</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C28" t="n">
-        <v>705.9324428257313</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="D28" t="n">
-        <v>555.8158034133955</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="E28" t="n">
-        <v>407.9027098310024</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="G28" t="n">
         <v>93.81666304797187</v>
@@ -6382,16 +6382,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782955</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797742</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N28" t="n">
         <v>1665.560112570817</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y28" t="n">
-        <v>945.4026036630037</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="29">
@@ -6452,31 +6452,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6540,28 +6540,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>692.9625378792909</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>1320.560501433898</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1872.470231673185</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>800.5007694647284</v>
+        <v>513.853600740071</v>
       </c>
       <c r="C31" t="n">
-        <v>631.5645865368215</v>
+        <v>344.9174178121641</v>
       </c>
       <c r="D31" t="n">
-        <v>631.5645865368215</v>
+        <v>194.8007783998282</v>
       </c>
       <c r="E31" t="n">
-        <v>483.6514929544284</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F31" t="n">
-        <v>336.761545456518</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>169.565446171398</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6625,7 +6625,7 @@
         <v>435.7419440038342</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6637,34 +6637,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1430.931364336515</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1202.941813438498</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y31" t="n">
-        <v>982.1492342949679</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
     <row r="32">
@@ -6674,10 +6674,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6692,22 +6692,22 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
         <v>2950.898526355937</v>
@@ -6725,25 +6725,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400691</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121622</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="D34" t="n">
-        <v>261.0127623330919</v>
+        <v>194.8007783998289</v>
       </c>
       <c r="E34" t="n">
-        <v>261.0127623330919</v>
+        <v>194.8007783998289</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
@@ -6871,37 +6871,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.0893932798</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853359</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580258</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832661</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487565</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510506</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854704</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648817</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611856</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138389</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703088</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="35">
@@ -6911,43 +6911,43 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6956,31 +6956,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7008,28 +7008,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>866.4638174991046</v>
+        <v>513.8536007400708</v>
       </c>
       <c r="C37" t="n">
-        <v>697.5276345711973</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="D37" t="n">
-        <v>697.5276345711973</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E37" t="n">
-        <v>549.6145409888042</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782954</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.741944003834</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L37" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
@@ -7111,34 +7111,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2330.071297269541</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2330.071297269541</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>2040.996070613739</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1786.311582407852</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1496.894412370892</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1268.904861472874</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y37" t="n">
-        <v>1048.112282329344</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
     <row r="38">
@@ -7166,49 +7166,49 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
         <v>3467.980956852888</v>
@@ -7245,13 +7245,13 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
         <v>427.7414352191925</v>
@@ -7260,7 +7260,7 @@
         <v>923.0670414349511</v>
       </c>
       <c r="M39" t="n">
-        <v>1373.553594266881</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N39" t="n">
         <v>2001.151557821488</v>
@@ -7306,52 +7306,52 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>768.538088945958</v>
+        <v>513.853600740071</v>
       </c>
       <c r="C40" t="n">
-        <v>599.6019060180511</v>
+        <v>344.9174178121641</v>
       </c>
       <c r="D40" t="n">
-        <v>449.4852666057154</v>
+        <v>194.8007783998283</v>
       </c>
       <c r="E40" t="n">
-        <v>301.5721730233223</v>
+        <v>194.8007783998283</v>
       </c>
       <c r="F40" t="n">
-        <v>301.5721730233223</v>
+        <v>194.8007783998283</v>
       </c>
       <c r="G40" t="n">
-        <v>134.3760737382022</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
@@ -7366,16 +7366,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1688.385853854706</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1398.968683817745</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>1170.979132919728</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y40" t="n">
-        <v>950.1865537761977</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
     <row r="41">
@@ -7409,28 +7409,28 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191925</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L42" t="n">
-        <v>923.0670414349511</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M42" t="n">
-        <v>1520.445529061503</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="N42" t="n">
-        <v>2148.04349261611</v>
+        <v>1368.154262550759</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188007</v>
+        <v>513.8536007400686</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121617</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908938</v>
+        <v>194.800778399826</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7567,13 +7567,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782955</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
@@ -7588,31 +7588,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580257</v>
       </c>
       <c r="R43" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.91737983266</v>
       </c>
       <c r="S43" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487564</v>
       </c>
       <c r="T43" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510505</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533435</v>
+        <v>1688.385853854703</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648817</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611856</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925705</v>
+        <v>916.2946447138385</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490404</v>
+        <v>695.5020655703083</v>
       </c>
     </row>
     <row r="44">
@@ -7622,7 +7622,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
         <v>1948.813509611463</v>
@@ -7640,58 +7640,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111711</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7719,34 +7719,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1186.520756890282</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N45" t="n">
-        <v>1814.118720444889</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>721.7774158311365</v>
+        <v>513.853600740071</v>
       </c>
       <c r="C46" t="n">
-        <v>552.8412329032296</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1641.625180739884</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1352.208010702924</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1124.218459804906</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y46" t="n">
-        <v>903.4258806613763</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265835</v>
+        <v>15.37922103265842</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8137,22 +8137,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>14.10430989402848</v>
+        <v>14.10430989402855</v>
       </c>
       <c r="L4" t="n">
         <v>162.4747015415544</v>
       </c>
       <c r="M4" t="n">
-        <v>171.4142040457085</v>
+        <v>82.97369176944316</v>
       </c>
       <c r="N4" t="n">
-        <v>163.8604018711117</v>
+        <v>163.8604018711116</v>
       </c>
       <c r="O4" t="n">
         <v>163.0416663658825</v>
       </c>
       <c r="P4" t="n">
-        <v>46.56605103777628</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>15.91370857612227</v>
+        <v>15.91370857612279</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,13 +8292,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>110.0758079547511</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>81.96559483790165</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>238.1875008526972</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,10 +8529,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>193.3273467878353</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8547,13 +8547,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.9377812015499</v>
+        <v>21.89339468985676</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23258,13 +23258,13 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23273,10 +23273,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>70.52580345902888</v>
+        <v>19.37720645670935</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>22.60777203238027</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,13 +23306,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>97.97552699114098</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9558092037176</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23321,7 +23321,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>68.50108760953832</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.8050985482227</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.7927049400678</v>
       </c>
       <c r="I13" t="n">
-        <v>89.71507747034036</v>
+        <v>89.71507747034039</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,7 +23467,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>218.6059168754546</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23476,13 +23476,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>22.33351054561723</v>
       </c>
     </row>
     <row r="14">
@@ -23495,7 +23495,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>50.29152613728951</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23507,7 +23507,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>50.29152613728928</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23659,13 +23659,13 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>157.4398111833788</v>
+        <v>84.16945386597351</v>
       </c>
       <c r="H16" t="n">
         <v>140.4539897919539</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23896,19 +23896,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>125.5054897610402</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>40.32043864788473</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>65.54986409393102</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>125.5054897610341</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>120.3791545843329</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24379,7 +24379,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856552</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>46.45968844823031</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>110.0033420516655</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24607,13 +24607,13 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>65.54986409393055</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24841,19 +24841,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>46.45968844823132</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>65.30341755403202</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25078,22 +25078,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>65.54986409393283</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>126.7126101431583</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25315,19 +25315,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>46.45968844823145</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25357,13 +25357,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>65.30341755403337</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25555,16 +25555,16 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>65.54986409393094</v>
       </c>
       <c r="H40" t="n">
-        <v>100.1408962628959</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25606,7 +25606,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25789,19 +25789,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823363</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>57.22910392194169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26023,7 +26023,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>45.44677382459331</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26032,13 +26032,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26080,7 +26080,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>139.4693302300328</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>987603.2169372767</v>
+        <v>987603.2169372765</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>879459.6522137575</v>
+        <v>879459.6522137574</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>956567.4989049577</v>
+        <v>956567.4989049578</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>961816.0218660282</v>
+        <v>961816.0218660283</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>961816.0218660284</v>
+        <v>961816.0218660282</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>961816.0218660283</v>
+        <v>961816.0218660282</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>961816.0218660283</v>
+        <v>961816.0218660282</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>961816.0218660283</v>
+        <v>961816.0218660282</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>961816.0218660283</v>
+        <v>961816.0218660282</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>961816.0218660283</v>
+        <v>961816.0218660282</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>961816.0218660283</v>
+        <v>961816.0218660281</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>961816.0218660283</v>
+        <v>961816.0218660282</v>
       </c>
     </row>
   </sheetData>
@@ -26311,10 +26311,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>472099.017671963</v>
+        <v>472099.0176719629</v>
       </c>
       <c r="C2" t="n">
-        <v>472099.0176719632</v>
+        <v>472099.0176719633</v>
       </c>
       <c r="D2" t="n">
         <v>472099.017671963</v>
@@ -26326,25 +26326,25 @@
         <v>461540.8686918676</v>
       </c>
       <c r="G2" t="n">
-        <v>464109.2948217536</v>
+        <v>464109.2948217537</v>
       </c>
       <c r="H2" t="n">
         <v>464109.2948217537</v>
       </c>
       <c r="I2" t="n">
+        <v>464109.2948217536</v>
+      </c>
+      <c r="J2" t="n">
         <v>464109.2948217537</v>
-      </c>
-      <c r="J2" t="n">
-        <v>464109.2948217536</v>
       </c>
       <c r="K2" t="n">
         <v>464109.2948217537</v>
       </c>
       <c r="L2" t="n">
-        <v>464109.2948217535</v>
+        <v>464109.2948217537</v>
       </c>
       <c r="M2" t="n">
-        <v>464109.2948217536</v>
+        <v>464109.2948217537</v>
       </c>
       <c r="N2" t="n">
         <v>464109.2948217536</v>
@@ -26353,7 +26353,7 @@
         <v>464109.2948217535</v>
       </c>
       <c r="P2" t="n">
-        <v>464109.2948217536</v>
+        <v>464109.2948217535</v>
       </c>
     </row>
     <row r="3">
@@ -26363,46 +26363,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208456</v>
+        <v>591356.9025208453</v>
       </c>
       <c r="C3" t="n">
-        <v>311475.5486359366</v>
+        <v>311475.5486359345</v>
       </c>
       <c r="D3" t="n">
-        <v>176113.3450239631</v>
+        <v>176113.3450239658</v>
       </c>
       <c r="E3" t="n">
-        <v>325187.1190357069</v>
+        <v>325187.1190357062</v>
       </c>
       <c r="F3" t="n">
-        <v>166521.3471051377</v>
+        <v>166521.3471051382</v>
       </c>
       <c r="G3" t="n">
-        <v>11167.23623557892</v>
+        <v>11167.23623557874</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854448</v>
+        <v>49064.94472854442</v>
       </c>
       <c r="K3" t="n">
-        <v>72419.11656261123</v>
+        <v>72419.11656261074</v>
       </c>
       <c r="L3" t="n">
-        <v>43449.5781582677</v>
+        <v>43449.57815826833</v>
       </c>
       <c r="M3" t="n">
-        <v>84929.59434456832</v>
+        <v>84929.59434456806</v>
       </c>
       <c r="N3" t="n">
-        <v>43782.40655848909</v>
+        <v>43782.40655848931</v>
       </c>
       <c r="O3" t="n">
-        <v>3023.297977224638</v>
+        <v>3023.297977224584</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26418,7 +26418,7 @@
         <v>278169.1766632064</v>
       </c>
       <c r="C4" t="n">
-        <v>195348.4800747341</v>
+        <v>195348.4800747348</v>
       </c>
       <c r="D4" t="n">
         <v>146359.3674130576</v>
@@ -26448,16 +26448,16 @@
         <v>14216.75207685506</v>
       </c>
       <c r="M4" t="n">
+        <v>14216.75207685507</v>
+      </c>
+      <c r="N4" t="n">
         <v>14216.75207685505</v>
       </c>
-      <c r="N4" t="n">
-        <v>14216.75207685509</v>
-      </c>
       <c r="O4" t="n">
-        <v>14216.75207685507</v>
+        <v>14216.75207685501</v>
       </c>
       <c r="P4" t="n">
-        <v>14216.75207685509</v>
+        <v>14216.75207685505</v>
       </c>
     </row>
     <row r="5">
@@ -26467,16 +26467,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161359</v>
+        <v>56985.80041161356</v>
       </c>
       <c r="C5" t="n">
-        <v>79374.38120560542</v>
+        <v>79374.38120560524</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="E5" t="n">
-        <v>86093.72216214713</v>
+        <v>86093.7221621471</v>
       </c>
       <c r="F5" t="n">
         <v>100142.1285138384</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-454412.8619237026</v>
+        <v>-454412.8619237024</v>
       </c>
       <c r="C6" t="n">
-        <v>-114099.392244313</v>
+        <v>-114099.3922443112</v>
       </c>
       <c r="D6" t="n">
-        <v>56688.5327950975</v>
+        <v>56688.53279509497</v>
       </c>
       <c r="E6" t="n">
-        <v>-1591.230729739691</v>
+        <v>-1801.194973583744</v>
       </c>
       <c r="F6" t="n">
-        <v>180667.1736172618</v>
+        <v>180621.2686216956</v>
       </c>
       <c r="G6" t="n">
-        <v>337602.7766854125</v>
+        <v>337568.0387599771</v>
       </c>
       <c r="H6" t="n">
-        <v>348770.0129209915</v>
+        <v>348735.2749955559</v>
       </c>
       <c r="I6" t="n">
-        <v>348770.0129209915</v>
+        <v>348735.2749955556</v>
       </c>
       <c r="J6" t="n">
-        <v>299705.068192447</v>
+        <v>299670.3302670114</v>
       </c>
       <c r="K6" t="n">
-        <v>276350.8963583803</v>
+        <v>276316.1584329451</v>
       </c>
       <c r="L6" t="n">
-        <v>305320.4347627236</v>
+        <v>305285.6968372875</v>
       </c>
       <c r="M6" t="n">
-        <v>263840.4185764231</v>
+        <v>263805.6806509878</v>
       </c>
       <c r="N6" t="n">
-        <v>304987.6063625023</v>
+        <v>304952.8684370664</v>
       </c>
       <c r="O6" t="n">
-        <v>345746.7149437667</v>
+        <v>345711.9770183311</v>
       </c>
       <c r="P6" t="n">
-        <v>348770.0129209914</v>
+        <v>348735.2749955556</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129048</v>
+        <v>548.4699409129045</v>
       </c>
       <c r="C3" t="n">
-        <v>790.6929739192477</v>
+        <v>790.6929739192457</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="E3" t="n">
         <v>1212.170267494556</v>
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663201</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="C4" t="n">
-        <v>468.9091179961483</v>
+        <v>468.9091179961462</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.584832100039</v>
       </c>
       <c r="E4" t="n">
-        <v>981.3883278086481</v>
+        <v>981.3883278086477</v>
       </c>
       <c r="F4" t="n">
         <v>1160.145290326007</v>
@@ -26805,7 +26805,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26957,31 +26957,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129048</v>
+        <v>548.4699409129045</v>
       </c>
       <c r="C3" t="n">
-        <v>242.2230330063429</v>
+        <v>242.2230330063412</v>
       </c>
       <c r="D3" t="n">
-        <v>143.3719181982915</v>
+        <v>143.3719181982938</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1053753770171</v>
+        <v>278.1053753770165</v>
       </c>
       <c r="F3" t="n">
-        <v>145.8707812218295</v>
+        <v>145.8707812218299</v>
       </c>
       <c r="G3" t="n">
-        <v>9.934451625288148</v>
+        <v>9.93445162528792</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
-        <v>-2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27009,19 +27009,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663201</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="C4" t="n">
-        <v>281.3835308298283</v>
+        <v>281.3835308298263</v>
       </c>
       <c r="D4" t="n">
-        <v>171.6757141038905</v>
+        <v>171.6757141038928</v>
       </c>
       <c r="E4" t="n">
-        <v>340.8034957086093</v>
+        <v>340.8034957086087</v>
       </c>
       <c r="F4" t="n">
-        <v>178.7569625173588</v>
+        <v>178.7569625173593</v>
       </c>
       <c r="G4" t="n">
         <v>12.56299777364143</v>
@@ -27033,22 +27033,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663201</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="K4" t="n">
-        <v>281.3835308298283</v>
+        <v>281.3835308298263</v>
       </c>
       <c r="L4" t="n">
-        <v>171.6757141038903</v>
+        <v>171.6757141038928</v>
       </c>
       <c r="M4" t="n">
-        <v>340.8034957086095</v>
+        <v>340.8034957086085</v>
       </c>
       <c r="N4" t="n">
-        <v>178.7569625173586</v>
+        <v>178.7569625173595</v>
       </c>
       <c r="O4" t="n">
-        <v>12.56299777364165</v>
+        <v>12.56299777364143</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27255,19 +27255,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663201</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="K4" t="n">
-        <v>281.3835308298283</v>
+        <v>281.3835308298263</v>
       </c>
       <c r="L4" t="n">
-        <v>171.6757141038905</v>
+        <v>171.6757141038928</v>
       </c>
       <c r="M4" t="n">
-        <v>340.8034957086093</v>
+        <v>340.8034957086087</v>
       </c>
       <c r="N4" t="n">
-        <v>178.7569625173588</v>
+        <v>178.7569625173593</v>
       </c>
       <c r="O4" t="n">
         <v>12.56299777364143</v>
@@ -27385,13 +27385,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>194.4047829059417</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>219.3504585753914</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>266.1666409393564</v>
       </c>
       <c r="H2" t="n">
         <v>316.8938261062223</v>
@@ -27430,16 +27430,16 @@
         <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
-        <v>213.4438810562068</v>
+        <v>25.91829388988697</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1692605650303</v>
+        <v>63.64367339871053</v>
       </c>
       <c r="V2" t="n">
-        <v>187.0428536677796</v>
+        <v>140.2266713038151</v>
       </c>
       <c r="W2" t="n">
-        <v>161.7153815510929</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27458,7 +27458,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>7.535961812221245</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -27470,13 +27470,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>48.77881175550658</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,25 +27503,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>26.91122581714239</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>117.6517152633799</v>
+        <v>7.884010625681428</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8637684100909</v>
+        <v>38.33818124377111</v>
       </c>
       <c r="V3" t="n">
-        <v>45.2749999831052</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>18.24739803715767</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27534,10 +27534,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>127.2030465488412</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27558,7 +27558,7 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>23.43375830553086</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,28 +27579,28 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>3.343082173845815</v>
       </c>
       <c r="R4" t="n">
-        <v>132.8223696106904</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>206.7802557954962</v>
       </c>
       <c r="T4" t="n">
-        <v>223.7196734901001</v>
+        <v>36.19408632378029</v>
       </c>
       <c r="U4" t="n">
-        <v>98.73949432713022</v>
+        <v>286.2650814934503</v>
       </c>
       <c r="V4" t="n">
-        <v>64.61205615750794</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>148.1273016398728</v>
+        <v>98.99741117027119</v>
       </c>
       <c r="X4" t="n">
-        <v>38.18406822271709</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27619,22 +27619,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>93.36875449270093</v>
       </c>
       <c r="E5" t="n">
-        <v>137.1570223223925</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>306.9212969131521</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>87.93039860750419</v>
+        <v>87.9303986075045</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>136.5862358447987</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>209.1812425557635</v>
@@ -27673,13 +27673,13 @@
         <v>251.0913596900936</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27692,22 +27692,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>60.35539490086393</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>135.6427813325164</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -27743,10 +27743,10 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>140.0927489854604</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>188.1643345239332</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -27761,7 +27761,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27783,13 +27783,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>101.4528448535119</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.565139569424</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>149.550160564931</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27822,22 +27822,22 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>67.9637317358924</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.241256277089</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27862,13 +27862,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>29.91130409992854</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>344.148105068251</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,16 +28008,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>55.73584717546848</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28059,16 +28059,16 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>11.7237504046557</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28573,7 +28573,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -28722,7 +28722,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>1.319714707885093e-12</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -28798,7 +28798,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-1.744524524838198e-12</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -29025,7 +29025,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>5.786006340713357e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -29752,7 +29752,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -29809,7 +29809,7 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -29943,7 +29943,7 @@
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>-2.273736754432321e-12</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30283,7 +30283,7 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -30460,7 +30460,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -30660,7 +30660,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>-2.813462145635952e-12</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -30697,7 +30697,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.204904285077002</v>
+        <v>2.204904285077001</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954486</v>
+        <v>22.58097600954484</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043123</v>
+        <v>85.00457245043117</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655544</v>
+        <v>187.1384950655543</v>
       </c>
       <c r="K2" t="n">
-        <v>280.472093452864</v>
+        <v>280.4720934528638</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672894</v>
+        <v>347.9504329672891</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470275</v>
+        <v>387.1618995470272</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470026</v>
+        <v>393.4265838470023</v>
       </c>
       <c r="O2" t="n">
-        <v>371.5015668622681</v>
+        <v>371.5015668622679</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244296</v>
+        <v>317.0679923244294</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151093</v>
+        <v>238.1048576151092</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974684</v>
+        <v>138.5038187974683</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619225</v>
+        <v>50.24425639619221</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924584</v>
+        <v>9.651968507924577</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1763923428061602</v>
+        <v>0.1763923428061601</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.179727797435305</v>
+        <v>1.179727797435304</v>
       </c>
       <c r="H3" t="n">
-        <v>11.39368688575676</v>
+        <v>11.39368688575675</v>
       </c>
       <c r="I3" t="n">
-        <v>40.61782109590852</v>
+        <v>40.6178210959085</v>
       </c>
       <c r="J3" t="n">
         <v>111.4584056340083</v>
       </c>
       <c r="K3" t="n">
-        <v>190.5001680621737</v>
+        <v>190.5001680621736</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405033</v>
+        <v>256.1509851405032</v>
       </c>
       <c r="M3" t="n">
-        <v>298.9161177975331</v>
+        <v>298.9161177975329</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829655</v>
+        <v>306.8275379829653</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292674</v>
+        <v>280.6872536292673</v>
       </c>
       <c r="P3" t="n">
-        <v>225.2762668628873</v>
+        <v>225.2762668628872</v>
       </c>
       <c r="Q3" t="n">
-        <v>150.5912184936715</v>
+        <v>150.5912184936714</v>
       </c>
       <c r="R3" t="n">
-        <v>73.2466083355008</v>
+        <v>73.24660833550074</v>
       </c>
       <c r="S3" t="n">
-        <v>21.91292641288821</v>
+        <v>21.9129264128882</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820371</v>
+        <v>4.755130902820368</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390166</v>
+        <v>0.07761367088390161</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445823</v>
+        <v>0.9890441557445817</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620019</v>
+        <v>8.793501675620014</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639163</v>
+        <v>29.74325515639161</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114197</v>
+        <v>69.92542181114192</v>
       </c>
       <c r="K4" t="n">
-        <v>114.9089482765069</v>
+        <v>114.9089482765068</v>
       </c>
       <c r="L4" t="n">
-        <v>147.0438920276991</v>
+        <v>147.043892027699</v>
       </c>
       <c r="M4" t="n">
-        <v>155.0371670682166</v>
+        <v>155.0371670682165</v>
       </c>
       <c r="N4" t="n">
-        <v>151.3507297604415</v>
+        <v>151.3507297604414</v>
       </c>
       <c r="O4" t="n">
-        <v>139.7968957592434</v>
+        <v>139.7968957592433</v>
       </c>
       <c r="P4" t="n">
-        <v>119.6203949820538</v>
+        <v>119.6203949820537</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784863</v>
+        <v>82.81896107784857</v>
       </c>
       <c r="R4" t="n">
-        <v>44.47102176647912</v>
+        <v>44.47102176647909</v>
       </c>
       <c r="S4" t="n">
-        <v>17.23634224147603</v>
+        <v>17.23634224147602</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181396</v>
+        <v>4.225915938181394</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061364</v>
+        <v>0.05394786304061361</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.178665221785918</v>
+        <v>3.17866522178591</v>
       </c>
       <c r="H5" t="n">
-        <v>32.55350520261504</v>
+        <v>32.55350520261496</v>
       </c>
       <c r="I5" t="n">
-        <v>122.5454909629017</v>
+        <v>122.5454909629014</v>
       </c>
       <c r="J5" t="n">
-        <v>269.7852373675528</v>
+        <v>269.7852373675521</v>
       </c>
       <c r="K5" t="n">
-        <v>404.3381362057508</v>
+        <v>404.3381362057498</v>
       </c>
       <c r="L5" t="n">
-        <v>501.6172119869817</v>
+        <v>501.6172119869804</v>
       </c>
       <c r="M5" t="n">
-        <v>558.145799624917</v>
+        <v>558.1457996249155</v>
       </c>
       <c r="N5" t="n">
-        <v>567.1771821863163</v>
+        <v>567.1771821863148</v>
       </c>
       <c r="O5" t="n">
-        <v>535.5693298871826</v>
+        <v>535.5693298871811</v>
       </c>
       <c r="P5" t="n">
-        <v>457.0960322243426</v>
+        <v>457.0960322243414</v>
       </c>
       <c r="Q5" t="n">
-        <v>343.2600839691343</v>
+        <v>343.2600839691334</v>
       </c>
       <c r="R5" t="n">
-        <v>199.6718292380098</v>
+        <v>199.6718292380093</v>
       </c>
       <c r="S5" t="n">
-        <v>72.43383374144668</v>
+        <v>72.43383374144649</v>
       </c>
       <c r="T5" t="n">
-        <v>13.91460700836786</v>
+        <v>13.91460700836783</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2542932177428734</v>
+        <v>0.2542932177428727</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.700735830694231</v>
+        <v>1.700735830694227</v>
       </c>
       <c r="H6" t="n">
-        <v>16.4255276280206</v>
+        <v>16.42552762802056</v>
       </c>
       <c r="I6" t="n">
-        <v>58.55603627609524</v>
+        <v>58.55603627609509</v>
       </c>
       <c r="J6" t="n">
-        <v>160.6822391622124</v>
+        <v>160.682239162212</v>
       </c>
       <c r="K6" t="n">
-        <v>274.6315398187259</v>
+        <v>274.6315398187252</v>
       </c>
       <c r="L6" t="n">
-        <v>369.2759969233242</v>
+        <v>369.2759969233232</v>
       </c>
       <c r="M6" t="n">
-        <v>430.92767078599</v>
+        <v>430.9276707859888</v>
       </c>
       <c r="N6" t="n">
-        <v>442.3330439663912</v>
+        <v>442.3330439663901</v>
       </c>
       <c r="O6" t="n">
-        <v>404.6483184546927</v>
+        <v>404.6483184546917</v>
       </c>
       <c r="P6" t="n">
-        <v>324.7659499858133</v>
+        <v>324.7659499858125</v>
       </c>
       <c r="Q6" t="n">
-        <v>217.0974369145829</v>
+        <v>217.0974369145823</v>
       </c>
       <c r="R6" t="n">
-        <v>105.594808856612</v>
+        <v>105.5948088566118</v>
       </c>
       <c r="S6" t="n">
-        <v>31.59042211837747</v>
+        <v>31.59042211837739</v>
       </c>
       <c r="T6" t="n">
-        <v>6.855158896526306</v>
+        <v>6.855158896526288</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1118905151772521</v>
+        <v>0.1118905151772518</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.425839789034709</v>
+        <v>1.425839789034705</v>
       </c>
       <c r="H7" t="n">
-        <v>12.6770119425086</v>
+        <v>12.67701194250857</v>
       </c>
       <c r="I7" t="n">
-        <v>42.87889111024381</v>
+        <v>42.87889111024369</v>
       </c>
       <c r="J7" t="n">
-        <v>100.8068730847539</v>
+        <v>100.8068730847536</v>
       </c>
       <c r="K7" t="n">
-        <v>165.6566591260325</v>
+        <v>165.6566591260321</v>
       </c>
       <c r="L7" t="n">
-        <v>211.9834900897603</v>
+        <v>211.9834900897598</v>
       </c>
       <c r="M7" t="n">
-        <v>223.5068680211407</v>
+        <v>223.5068680211401</v>
       </c>
       <c r="N7" t="n">
-        <v>218.1923742620116</v>
+        <v>218.192374262011</v>
       </c>
       <c r="O7" t="n">
-        <v>201.535973090106</v>
+        <v>201.5359730901055</v>
       </c>
       <c r="P7" t="n">
-        <v>172.4488413937978</v>
+        <v>172.4488413937974</v>
       </c>
       <c r="Q7" t="n">
-        <v>119.3946390618064</v>
+        <v>119.3946390618061</v>
       </c>
       <c r="R7" t="n">
-        <v>64.11094178696062</v>
+        <v>64.11094178696045</v>
       </c>
       <c r="S7" t="n">
-        <v>24.84849886890487</v>
+        <v>24.84849886890481</v>
       </c>
       <c r="T7" t="n">
-        <v>6.092224553148299</v>
+        <v>6.092224553148284</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07777307940189331</v>
+        <v>0.0777730794018931</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,34 +31513,34 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H8" t="n">
         <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J8" t="n">
         <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L8" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q8" t="n">
         <v>405.5015080147052</v>
@@ -31549,13 +31549,13 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T8" t="n">
         <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,34 +31592,34 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H9" t="n">
         <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q9" t="n">
         <v>256.4624964168761</v>
@@ -31628,10 +31628,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U9" t="n">
         <v>0.1321789941675764</v>
@@ -31677,19 +31677,19 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335771</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L10" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N10" t="n">
         <v>257.7559726067959</v>
@@ -31704,16 +31704,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S10" t="n">
         <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.87304630148565</v>
+        <v>4.873046301485648</v>
       </c>
       <c r="H11" t="n">
-        <v>49.90608543508993</v>
+        <v>49.90608543508991</v>
       </c>
       <c r="I11" t="n">
-        <v>187.8681175380257</v>
+        <v>187.8681175380256</v>
       </c>
       <c r="J11" t="n">
-        <v>413.593713530718</v>
+        <v>413.5937135307179</v>
       </c>
       <c r="K11" t="n">
-        <v>619.8697634726058</v>
+        <v>619.8697634726055</v>
       </c>
       <c r="L11" t="n">
-        <v>769.0032542216974</v>
+        <v>769.003254221697</v>
       </c>
       <c r="M11" t="n">
-        <v>855.6642913857428</v>
+        <v>855.6642913857424</v>
       </c>
       <c r="N11" t="n">
-        <v>869.5098341898389</v>
+        <v>869.5098341898387</v>
       </c>
       <c r="O11" t="n">
-        <v>821.0534800294409</v>
+        <v>821.0534800294406</v>
       </c>
       <c r="P11" t="n">
-        <v>700.7501494615138</v>
+        <v>700.7501494615136</v>
       </c>
       <c r="Q11" t="n">
-        <v>526.2341787895589</v>
+        <v>526.2341787895587</v>
       </c>
       <c r="R11" t="n">
-        <v>306.1064947356982</v>
+        <v>306.1064947356981</v>
       </c>
       <c r="S11" t="n">
-        <v>111.0445425951044</v>
+        <v>111.0445425951043</v>
       </c>
       <c r="T11" t="n">
-        <v>21.33176018475345</v>
+        <v>21.33176018475343</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3898437041188519</v>
+        <v>0.3898437041188518</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.607309631969423</v>
+        <v>2.607309631969422</v>
       </c>
       <c r="H12" t="n">
-        <v>25.18112197191522</v>
+        <v>25.18112197191521</v>
       </c>
       <c r="I12" t="n">
-        <v>89.7692132059648</v>
+        <v>89.76921320596476</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>246.3335823783041</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>421.0233277202553</v>
       </c>
       <c r="L12" t="n">
-        <v>544.2170489310829</v>
+        <v>566.1178216256415</v>
       </c>
       <c r="M12" t="n">
-        <v>660.6327957845331</v>
+        <v>219.8517740430757</v>
       </c>
       <c r="N12" t="n">
-        <v>678.1177801147142</v>
+        <v>678.1177801147139</v>
       </c>
       <c r="O12" t="n">
-        <v>620.3452877431811</v>
+        <v>620.3452877431808</v>
       </c>
       <c r="P12" t="n">
-        <v>497.8817840205472</v>
+        <v>497.881784020547</v>
       </c>
       <c r="Q12" t="n">
-        <v>332.8207874071846</v>
+        <v>332.8207874071845</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>161.8819085533296</v>
       </c>
       <c r="S12" t="n">
-        <v>48.42963285697588</v>
+        <v>48.42963285697586</v>
       </c>
       <c r="T12" t="n">
         <v>10.50928750780657</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1715335284190411</v>
+        <v>0.171533528419041</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.185880810236085</v>
+        <v>2.185880810236084</v>
       </c>
       <c r="H13" t="n">
-        <v>19.43446756737175</v>
+        <v>19.43446756737174</v>
       </c>
       <c r="I13" t="n">
-        <v>65.73539745691792</v>
+        <v>65.73539745691789</v>
       </c>
       <c r="J13" t="n">
-        <v>154.5417732836912</v>
+        <v>154.5417732836911</v>
       </c>
       <c r="K13" t="n">
-        <v>253.9596068619742</v>
+        <v>253.9596068619741</v>
       </c>
       <c r="L13" t="n">
-        <v>324.9808615509176</v>
+        <v>324.9808615509175</v>
       </c>
       <c r="M13" t="n">
-        <v>342.646752826371</v>
+        <v>342.6467528263709</v>
       </c>
       <c r="N13" t="n">
-        <v>334.4993788973095</v>
+        <v>334.4993788973094</v>
       </c>
       <c r="O13" t="n">
-        <v>308.964316705006</v>
+        <v>308.9643167050059</v>
       </c>
       <c r="P13" t="n">
-        <v>264.3723481761897</v>
+        <v>264.3723481761896</v>
       </c>
       <c r="Q13" t="n">
-        <v>183.037710391678</v>
+        <v>183.0377103916779</v>
       </c>
       <c r="R13" t="n">
-        <v>98.28514988570612</v>
+        <v>98.28514988570609</v>
       </c>
       <c r="S13" t="n">
-        <v>38.09394102929613</v>
+        <v>38.09394102929611</v>
       </c>
       <c r="T13" t="n">
-        <v>9.339672552826906</v>
+        <v>9.339672552826903</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1192298623765139</v>
+        <v>0.1192298623765138</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32072,7 +32072,7 @@
         <v>28.21138103088191</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530531</v>
       </c>
       <c r="J15" t="n">
         <v>275.9770021735818</v>
@@ -32084,22 +32084,22 @@
         <v>634.2436048745725</v>
       </c>
       <c r="M15" t="n">
-        <v>740.1323715504302</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>759.7214730927639</v>
+        <v>391.6330708361143</v>
       </c>
       <c r="O15" t="n">
-        <v>422.3544583169084</v>
+        <v>694.9967242426205</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>557.7961431982454</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286953</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436714</v>
       </c>
       <c r="S15" t="n">
         <v>54.25758340862161</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>260.1710714068256</v>
       </c>
       <c r="L18" t="n">
-        <v>545.3845241768652</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,10 +32540,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32552,37 +32552,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>551.7051287319848</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>171.4104471179106</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32783,22 +32783,22 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>137.7376326175077</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437244</v>
@@ -32810,7 +32810,7 @@
         <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
-        <v>171.4104471179097</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742439</v>
@@ -33023,19 +33023,19 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622665</v>
+        <v>379.4203056753705</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
@@ -33260,31 +33260,31 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>548.8125296967492</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33494,10 +33494,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
@@ -33506,22 +33506,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>530.5785304507792</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33731,7 +33731,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33740,19 +33740,19 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>514.8598010172138</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33980,10 +33980,10 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>597.1709559744729</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>616.9033572954396</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
@@ -34205,34 +34205,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>551.7051287319853</v>
+        <v>638.9422653403558</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34442,34 +34442,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>377.6350660745956</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538868137</v>
+        <v>6.092590538868023</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788344</v>
+        <v>60.38224240788327</v>
       </c>
       <c r="L2" t="n">
-        <v>112.1840179973021</v>
+        <v>112.1840179973019</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197548</v>
+        <v>156.8156663197545</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504117</v>
+        <v>164.0135202504114</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405814</v>
+        <v>141.4033554405811</v>
       </c>
       <c r="P2" t="n">
-        <v>85.83499656916001</v>
+        <v>85.83499656915984</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065984</v>
+        <v>15.7991677406597</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781475</v>
+        <v>52.65872908781463</v>
       </c>
       <c r="L3" t="n">
-        <v>117.5966053606292</v>
+        <v>117.596605360629</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755148</v>
+        <v>156.7820838755146</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4858258996322</v>
+        <v>175.485825899632</v>
       </c>
       <c r="O3" t="n">
-        <v>138.091009184823</v>
+        <v>138.0910091848228</v>
       </c>
       <c r="P3" t="n">
-        <v>91.30185944855702</v>
+        <v>91.30185944855691</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440765002</v>
+        <v>10.60944440764993</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34860,19 +34860,19 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>174.6339172880153</v>
+        <v>174.6339172880152</v>
       </c>
       <c r="M4" t="n">
-        <v>187.5255871663201</v>
+        <v>99.08507489005466</v>
       </c>
       <c r="N4" t="n">
-        <v>187.5255871663201</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="O4" t="n">
         <v>164.382023673283</v>
       </c>
       <c r="P4" t="n">
-        <v>28.45844197068246</v>
+        <v>116.8989542469472</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>88.73933284086655</v>
+        <v>88.73933284086581</v>
       </c>
       <c r="K5" t="n">
-        <v>184.2482851607703</v>
+        <v>184.2482851607692</v>
       </c>
       <c r="L5" t="n">
-        <v>265.8507970169945</v>
+        <v>265.8507970169932</v>
       </c>
       <c r="M5" t="n">
-        <v>327.7995663976443</v>
+        <v>327.7995663976428</v>
       </c>
       <c r="N5" t="n">
-        <v>337.7641185897253</v>
+        <v>337.7641185897239</v>
       </c>
       <c r="O5" t="n">
-        <v>305.4711184654958</v>
+        <v>305.4711184654943</v>
       </c>
       <c r="P5" t="n">
-        <v>225.8630364690731</v>
+        <v>225.8630364690719</v>
       </c>
       <c r="Q5" t="n">
-        <v>120.9543940946848</v>
+        <v>120.9543940946839</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,31 +35012,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>143.9204204502968</v>
+        <v>33.84461249554533</v>
       </c>
       <c r="K6" t="n">
-        <v>136.7901008443669</v>
+        <v>218.7556956822678</v>
       </c>
       <c r="L6" t="n">
-        <v>230.72161714345</v>
+        <v>468.9091179961462</v>
       </c>
       <c r="M6" t="n">
-        <v>288.7936368639716</v>
+        <v>288.7936368639705</v>
       </c>
       <c r="N6" t="n">
-        <v>310.9913318830579</v>
+        <v>310.9913318830568</v>
       </c>
       <c r="O6" t="n">
-        <v>262.0520740102483</v>
+        <v>262.0520740102473</v>
       </c>
       <c r="P6" t="n">
-        <v>190.7915425714831</v>
+        <v>190.7915425714822</v>
       </c>
       <c r="Q6" t="n">
-        <v>287.1929505644105</v>
+        <v>77.11566282856083</v>
       </c>
       <c r="R6" t="n">
-        <v>5.4369747039689</v>
+        <v>5.43697470396863</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>7.447692968081128</v>
+        <v>7.447692968080872</v>
       </c>
       <c r="K7" t="n">
-        <v>143.3871673001497</v>
+        <v>143.3871673001492</v>
       </c>
       <c r="L7" t="n">
-        <v>239.5735153500764</v>
+        <v>239.5735153500759</v>
       </c>
       <c r="M7" t="n">
-        <v>263.0907449829813</v>
+        <v>263.0907449829807</v>
       </c>
       <c r="N7" t="n">
-        <v>262.3245466412401</v>
+        <v>262.3245466412396</v>
       </c>
       <c r="O7" t="n">
-        <v>226.1211010041457</v>
+        <v>226.1211010041452</v>
       </c>
       <c r="P7" t="n">
-        <v>169.7274006586913</v>
+        <v>169.7274006586908</v>
       </c>
       <c r="Q7" t="n">
-        <v>33.23259581011202</v>
+        <v>33.2325958101117</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35173,28 +35173,28 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q8" t="n">
         <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939904</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35249,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K9" t="n">
-        <v>379.9148430313201</v>
+        <v>186.5874962434849</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378503</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235323</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q9" t="n">
         <v>326.5580100667037</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>0.9556134883069083</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K10" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N10" t="n">
         <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805403</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>232.5478090040318</v>
+        <v>232.5478090040316</v>
       </c>
       <c r="K11" t="n">
-        <v>399.7799124276252</v>
+        <v>399.779912427625</v>
       </c>
       <c r="L11" t="n">
-        <v>533.2368392517101</v>
+        <v>533.2368392517099</v>
       </c>
       <c r="M11" t="n">
-        <v>625.3180581584701</v>
+        <v>625.3180581584697</v>
       </c>
       <c r="N11" t="n">
-        <v>640.096770593248</v>
+        <v>640.0967705932478</v>
       </c>
       <c r="O11" t="n">
-        <v>590.9552686077542</v>
+        <v>590.9552686077539</v>
       </c>
       <c r="P11" t="n">
-        <v>469.5171537062443</v>
+        <v>469.5171537062441</v>
       </c>
       <c r="Q11" t="n">
-        <v>303.9284889151094</v>
+        <v>303.9284889151091</v>
       </c>
       <c r="R11" t="n">
-        <v>90.5209569215661</v>
+        <v>90.52095692156598</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>119.4959557116374</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>283.1818887458963</v>
       </c>
       <c r="L12" t="n">
-        <v>405.6626691512088</v>
+        <v>427.5634418457673</v>
       </c>
       <c r="M12" t="n">
-        <v>518.4987618625148</v>
+        <v>77.71774012105745</v>
       </c>
       <c r="N12" t="n">
-        <v>546.7760680313809</v>
+        <v>546.7760680313806</v>
       </c>
       <c r="O12" t="n">
-        <v>477.7490432987366</v>
+        <v>477.7490432987364</v>
       </c>
       <c r="P12" t="n">
-        <v>363.9073766062169</v>
+        <v>363.9073766062168</v>
       </c>
       <c r="Q12" t="n">
-        <v>192.8390133211631</v>
+        <v>192.839013321163</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>16.20240458936567</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>61.18259316701844</v>
+        <v>61.18259316701835</v>
       </c>
       <c r="K13" t="n">
-        <v>231.6901150360913</v>
+        <v>231.6901150360912</v>
       </c>
       <c r="L13" t="n">
-        <v>352.5708868112338</v>
+        <v>352.5708868112337</v>
       </c>
       <c r="M13" t="n">
-        <v>382.2306297882116</v>
+        <v>382.2306297882114</v>
       </c>
       <c r="N13" t="n">
-        <v>378.6315512765381</v>
+        <v>378.6315512765379</v>
       </c>
       <c r="O13" t="n">
-        <v>333.5494446190457</v>
+        <v>333.5494446190456</v>
       </c>
       <c r="P13" t="n">
-        <v>261.6509074410832</v>
+        <v>261.6509074410831</v>
       </c>
       <c r="Q13" t="n">
-        <v>96.87566713998361</v>
+        <v>96.87566713998355</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.049527853053121</v>
       </c>
       <c r="J15" t="n">
         <v>149.1393755069151</v>
@@ -35732,22 +35732,22 @@
         <v>495.6892250946983</v>
       </c>
       <c r="M15" t="n">
-        <v>597.9983376284119</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>628.3797610094306</v>
+        <v>260.291358752781</v>
       </c>
       <c r="O15" t="n">
-        <v>279.758213872464</v>
+        <v>552.4004797981761</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>423.8217357839152</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>232.8901757426738</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>35.68303457970742</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,13 +35960,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="L18" t="n">
-        <v>406.830144396991</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35975,16 +35975,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,28 +36200,28 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>409.1088842875403</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>25.73094315394662</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36431,22 +36431,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>6.395920534174421</v>
       </c>
       <c r="O24" t="n">
         <v>557.48457599928</v>
@@ -36458,7 +36458,7 @@
         <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
-        <v>25.73094315394571</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36671,19 +36671,19 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402481</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
@@ -36908,31 +36908,31 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>414.838122282419</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37142,10 +37142,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
@@ -37154,22 +37154,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>388.4444965287609</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37239,7 +37239,7 @@
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060432</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37388,19 +37388,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>376.3054212373396</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37628,10 +37628,10 @@
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>455.0369220524547</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>485.5616452121063</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>409.1088842875408</v>
+        <v>496.3460208959114</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37956,7 +37956,7 @@
         <v>295.631773306625</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998955</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
